--- a/CalcOutput/BatEqns.xlsx
+++ b/CalcOutput/BatEqns.xlsx
@@ -336,7 +336,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -344,218 +344,194 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="n">
-        <v>0.00432304930860809</v>
+        <v>0.00210060577194242</v>
       </c>
       <c r="B1" t="n">
-        <v>0.0455287651012723</v>
+        <v>0.191068397422842</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="n">
-        <v>0.00122816576315927</v>
+        <v>0.00310141725037511</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.0225452985156506</v>
+        <v>0.0825546652729856</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="n">
-        <v>0.000607509524731683</v>
+        <v>0.00147286072276185</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.015032155440288</v>
+        <v>-0.0438553067561367</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="n">
-        <v>0.00237532870492009</v>
+        <v>0.00297219028221427</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.0544061288052276</v>
+        <v>-0.070004137256296</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="n">
-        <v>-0.00478719245485959</v>
+        <v>-0.00581863717254974</v>
       </c>
       <c r="B5" t="n">
-        <v>0.389592882407286</v>
+        <v>0.557640391800794</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="n">
-        <v>0.00407478912288462</v>
+        <v>0.00146081913767116</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0575609087421441</v>
+        <v>0.222872867949528</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="n">
-        <v>0.00103770637917241</v>
+        <v>0.00304466000818034</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.0110955749589259</v>
+        <v>0.0872129300713072</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="n">
-        <v>0.000711915505782267</v>
+        <v>0.00178448623136325</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.0178828370997045</v>
+        <v>-0.0586955531400221</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="n">
-        <v>0.0029008893693975</v>
+        <v>0.00334203879907175</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.0658535842428162</v>
+        <v>-0.0854104596353763</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="n">
-        <v>-0.00456333690363038</v>
+        <v>-0.00617119177249405</v>
       </c>
       <c r="B10" t="n">
-        <v>0.377154691966376</v>
+        <v>0.577032262183724</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="n">
-        <v>0.00354648517990963</v>
+        <v>0.00227888014554518</v>
       </c>
       <c r="B11" t="n">
-        <v>0.077008446380206</v>
+        <v>0.181882213284571</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="n">
-        <v>0.000869004971779759</v>
+        <v>0.00172691530189169</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.00255650555602453</v>
+        <v>0.164076750457228</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="n">
-        <v>0.000853709468423806</v>
+        <v>0.00167648269971471</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.0247272238670739</v>
+        <v>-0.051912802963853</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="n">
-        <v>0.00287108970775737</v>
+        <v>0.00361339340147322</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.070368249599223</v>
+        <v>-0.100301948901737</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="n">
-        <v>-0.00427934423247921</v>
+        <v>-0.00572940391373669</v>
       </c>
       <c r="B15" t="n">
-        <v>0.356840173667795</v>
+        <v>0.555957925866079</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="n">
-        <v>0.00555852724580442</v>
+        <v>0.00259275895280571</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.00535360797114057</v>
+        <v>0.171033505646922</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="n">
-        <v>0.000970639055330639</v>
+        <v>0.0023527967369067</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.00562981157499757</v>
+        <v>0.121889714538855</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="n">
-        <v>0.000673203217896451</v>
+        <v>0.00128508269032611</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.0160613572350837</v>
+        <v>-0.0355174157389726</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="n">
-        <v>0.00206071661867553</v>
+        <v>0.00339788696290156</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.0367506945522754</v>
+        <v>-0.0920599363046228</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="n">
-        <v>-0.0055929238287417</v>
+        <v>-0.00611960667305488</v>
       </c>
       <c r="B20" t="n">
-        <v>0.43626989051342</v>
+        <v>0.576400887889101</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="n">
-        <v>0.00434351356028797</v>
+        <v>0.00162230388971332</v>
       </c>
       <c r="B21" t="n">
-        <v>-0.0516076870383746</v>
+        <v>0.00215043442410712</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="n">
-        <v>-0.000770506803637168</v>
+        <v>-0.000820198240398804</v>
       </c>
       <c r="B22" t="n">
-        <v>0.073609690700014</v>
+        <v>0.0807626844727466</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="n">
-        <v>0.00382693829604296</v>
+        <v>0.00458986615896255</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.105747939251874</v>
+        <v>-0.131067075656968</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="n">
-        <v>0.0070355064049062</v>
+        <v>0.0129867619495103</v>
       </c>
       <c r="B24" t="n">
-        <v>0.2596400418536</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="n">
-        <v>-0.000148950498434151</v>
-      </c>
-      <c r="B25" t="n">
-        <v>0.147518638037139</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="n">
-        <v>-0.000270771664254727</v>
-      </c>
-      <c r="B26" t="n">
-        <v>0.0426401927480033</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="n">
-        <v>0.00404062348129657</v>
-      </c>
-      <c r="B27" t="n">
-        <v>0.0365660824752676</v>
+        <v>-0.0835475264778341</v>
       </c>
     </row>
   </sheetData>
